--- a/Лабораторная работа №1/Excel-тесты/Task one.xlsx
+++ b/Лабораторная работа №1/Excel-тесты/Task one.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
-    <sheet name="Проверка достаточности тестов" sheetId="2" r:id="rId2"/>
+    <sheet name="Обхват разных входных данных" sheetId="2" r:id="rId2"/>
+    <sheet name="Проверка достаточности тестов" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>№ теста</t>
   </si>
@@ -160,6 +161,30 @@
   </si>
   <si>
     <t>Данное число не входит в ОДЗ.</t>
+  </si>
+  <si>
+    <t>Проверка ввода m</t>
+  </si>
+  <si>
+    <t>Проверка исключённых значений x</t>
+  </si>
+  <si>
+    <t>Вывелось сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Не вывелось сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Проверка ввода n</t>
+  </si>
+  <si>
+    <t>Проверка ввода x</t>
+  </si>
+  <si>
+    <t>Данные преобразованы к типу объекта</t>
+  </si>
+  <si>
+    <t>Обработка исключительной ситуации</t>
   </si>
 </sst>
 </file>
@@ -175,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +273,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -625,11 +662,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,6 +888,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,16 +1005,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066CC"/>
+      <color rgb="FF669900"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FF0066CC"/>
       <color rgb="FF333399"/>
-      <color rgb="FF669900"/>
       <color rgb="FF663300"/>
-      <color rgb="FF666699"/>
-      <color rgb="FF008080"/>
-      <color rgb="FF6666FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1139,7 +1293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2017,4 +2173,292 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="51"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
+        <v>2</v>
+      </c>
+      <c r="E2" s="26">
+        <v>3</v>
+      </c>
+      <c r="F2" s="26">
+        <v>4</v>
+      </c>
+      <c r="G2" s="26">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26">
+        <v>6</v>
+      </c>
+      <c r="I2" s="26">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26">
+        <v>8</v>
+      </c>
+      <c r="K2" s="26">
+        <v>9</v>
+      </c>
+      <c r="L2" s="26">
+        <v>10</v>
+      </c>
+      <c r="M2" s="26">
+        <v>11</v>
+      </c>
+      <c r="N2" s="26">
+        <v>12</v>
+      </c>
+      <c r="O2" s="26">
+        <v>13</v>
+      </c>
+      <c r="P2" s="26">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>15</v>
+      </c>
+      <c r="R2" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="66"/>
+    </row>
+    <row r="4" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="67"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="67"/>
+    </row>
+    <row r="6" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="85"/>
+      <c r="B6" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="67"/>
+    </row>
+    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="67"/>
+    </row>
+    <row r="8" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="69"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="70"/>
+      <c r="B10" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Лабораторная работа №1/Excel-тесты/Task one.xlsx
+++ b/Лабораторная работа №1/Excel-тесты/Task one.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
-    <sheet name="Обхват разных входных данных" sheetId="2" r:id="rId2"/>
-    <sheet name="Проверка достаточности тестов" sheetId="3" r:id="rId3"/>
+    <sheet name="Black box" sheetId="2" r:id="rId2"/>
+    <sheet name="White box" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>№ теста</t>
   </si>
@@ -109,9 +109,6 @@
     <t>4. x + 1 / (x^3 - x) - 2 = -7,00833333333333</t>
   </si>
   <si>
-    <t>-1 или 0 или 1</t>
-  </si>
-  <si>
     <t>4. x + 1 / (x^3 - x) - 2 = 1,17747781855558</t>
   </si>
   <si>
@@ -139,52 +136,52 @@
     <t>Целое число</t>
   </si>
   <si>
-    <t>Int32</t>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
     <t>Пустое множество</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>m или n</t>
-  </si>
-  <si>
     <t>Невозможно преобразовать входные данные в указанный тип.</t>
   </si>
   <si>
     <t>Данное число не входит в ОДЗ.</t>
   </si>
   <si>
-    <t>Проверка ввода m</t>
-  </si>
-  <si>
     <t>Проверка исключённых значений x</t>
   </si>
   <si>
-    <t>Вывелось сообщение об ошибке</t>
-  </si>
-  <si>
-    <t>Не вывелось сообщение об ошибке</t>
-  </si>
-  <si>
-    <t>Проверка ввода n</t>
-  </si>
-  <si>
-    <t>Проверка ввода x</t>
-  </si>
-  <si>
-    <t>Данные преобразованы к типу объекта</t>
-  </si>
-  <si>
-    <t>Обработка исключительной ситуации</t>
+    <t>Проверка ввода m. Результат преобразования запишется в isSuitableValue</t>
+  </si>
+  <si>
+    <t>Данные преобразованы к типу объекта. isSuitableValue == True</t>
+  </si>
+  <si>
+    <t>Обработка исключительной ситуации. isSuitableValue == False</t>
+  </si>
+  <si>
+    <t>Проверка ввода n. Результат преобразования запишется в isSuitableValue</t>
+  </si>
+  <si>
+    <t>Проверка ввода x. Результат преобразования запишется в isSuitableValue</t>
+  </si>
+  <si>
+    <t>Любое другое число Double. Сообщение об ошибке не вывелось</t>
+  </si>
+  <si>
+    <t>m - Int32</t>
+  </si>
+  <si>
+    <t>n - Int32</t>
+  </si>
+  <si>
+    <t>x - Double</t>
+  </si>
+  <si>
+    <t>Классы входных данных</t>
+  </si>
+  <si>
+    <t>Выходные объекты классов</t>
   </si>
 </sst>
 </file>
@@ -263,30 +260,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9966"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9999FF"/>
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -605,97 +602,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -705,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,68 +692,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,122 +713,158 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,16 +903,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FFCCFF33"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF9966FF"/>
+      <color rgb="FF669900"/>
       <color rgb="FF0066CC"/>
-      <color rgb="FF669900"/>
-      <color rgb="FFFFCC99"/>
-      <color rgb="FF9999FF"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FFFF9966"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FF333399"/>
-      <color rgb="FF663300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1291,11 +1189,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:E19"/>
-    </sheetView>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1324,13 +1220,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -1397,10 +1293,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1416,10 +1312,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1435,10 +1331,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1451,13 +1347,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1473,10 +1369,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E10" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1484,13 +1380,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
@@ -1507,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="19" t="str">
-        <f t="shared" ref="E12:E19" si="2">IF(C12=D12,"Истина","Ложь")</f>
+        <f t="shared" ref="E12:E21" si="2">IF(C12=D12,"Истина","Ложь")</f>
         <v>Истина</v>
       </c>
     </row>
@@ -1532,114 +1428,152 @@
     </row>
     <row r="14" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <f t="shared" ref="A14:A19" si="3">A13+1</f>
+        <f>A13+1</f>
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
+      <c r="B14" s="6">
+        <v>-1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Истина</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A15:A21" si="3">A14+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="3">
-        <v>3.1415899999999999</v>
+      <c r="B15" s="6">
+        <v>0</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Истина</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B16" s="3">
-        <v>-2.71828</v>
+      <c r="B16" s="6">
+        <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Истина</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
+      <c r="B17" s="3">
+        <v>3.1415899999999999</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E17" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Истина</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>36</v>
+      <c r="B18" s="3">
+        <v>-2.71828</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Истина</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="11" t="str">
+      <c r="B19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Истина</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Истина</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11" t="str">
         <f t="shared" si="2"/>
         <v>Истина</v>
       </c>
@@ -1649,7 +1583,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1 E12:E16 E20:E1048576 E3:E10">
+  <conditionalFormatting sqref="E1 E22:E1048576 E3:E10 E12:E18">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Ложь">
       <formula>NOT(ISERROR(SEARCH("Ложь",E1)))</formula>
     </cfRule>
@@ -1657,12 +1591,12 @@
       <formula>NOT(ISERROR(SEARCH("Истина",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E19">
+  <conditionalFormatting sqref="E19:E21">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ложь">
-      <formula>NOT(ISERROR(SEARCH("Ложь",E17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Ложь",E19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Истина">
-      <formula>NOT(ISERROR(SEARCH("Истина",E17)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Истина",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,504 +1606,584 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="19.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="19.08984375" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="31">
+      <c r="B1" s="36"/>
+      <c r="C1" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="51">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="33">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="33">
         <f t="shared" ref="E2:R2" si="0">D2+1</f>
         <v>3</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="33">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="33">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="33">
         <f>O2+1</f>
         <v>14</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="S2" s="33">
+        <f t="shared" ref="S2" si="1">R2+1</f>
+        <v>17</v>
+      </c>
+      <c r="T2" s="44">
+        <f t="shared" ref="T2" si="2">S2+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="19"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
-      <c r="B4" s="33" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="33" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40"/>
+      <c r="B7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
-      <c r="B6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
-      <c r="B7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="41"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="56"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="60"/>
-      <c r="B10" s="33" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="60"/>
-      <c r="B11" s="33" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="59"/>
+      <c r="B11" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
-      <c r="B12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
-      <c r="B13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="41"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="37"/>
+      <c r="B13" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="37"/>
+      <c r="B14" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="76"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40"/>
+      <c r="B15" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="41"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:R1"/>
+  <mergeCells count="23">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2177,287 +2191,358 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A6" zoomScale="67" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="27.26953125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="30">
+      <c r="B1" s="68"/>
+      <c r="C1" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="43"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="62"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="46">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="46">
         <v>2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="46">
         <v>3</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="46">
         <v>4</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="46">
         <v>5</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="46">
         <v>6</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="46">
         <v>7</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="46">
         <v>8</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="46">
         <v>9</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="46">
         <v>10</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="46">
         <v>11</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="46">
         <v>12</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="46">
         <v>13</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="46">
         <v>14</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="46">
         <v>15</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="46">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="79" t="s">
+      <c r="S2" s="46">
+        <v>17</v>
+      </c>
+      <c r="T2" s="41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="59"/>
+      <c r="B6" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="38"/>
+    </row>
+    <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="66"/>
-    </row>
-    <row r="4" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="67"/>
-    </row>
-    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="67"/>
-    </row>
-    <row r="6" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="85"/>
-      <c r="B6" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="67"/>
-    </row>
-    <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="67"/>
-    </row>
-    <row r="8" spans="1:18" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="69"/>
-    </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68" t="s">
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="38"/>
+    </row>
+    <row r="8" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="76"/>
+    </row>
+    <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="64">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="65">
+        <v>0</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="38"/>
+    </row>
+    <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="65">
+        <v>1</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="38"/>
+    </row>
+    <row r="12" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="59"/>
+      <c r="B12" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="70"/>
-      <c r="B10" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лабораторная работа №1/Excel-тесты/Task one.xlsx
+++ b/Лабораторная работа №1/Excel-тесты/Task one.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
-    <sheet name="Black box" sheetId="2" r:id="rId2"/>
-    <sheet name="White box" sheetId="4" r:id="rId3"/>
+    <sheet name="White box" sheetId="4" r:id="rId2"/>
+    <sheet name="Black box" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -704,6 +704,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,13 +800,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,46 +836,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -776,94 +860,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1220,13 +1220,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
@@ -1380,13 +1380,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
@@ -1606,9 +1606,368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="67" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12:Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="27.26953125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="65"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="73"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <v>2</v>
+      </c>
+      <c r="E2" s="34">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>4</v>
+      </c>
+      <c r="G2" s="34">
+        <v>5</v>
+      </c>
+      <c r="H2" s="34">
+        <v>6</v>
+      </c>
+      <c r="I2" s="34">
+        <v>7</v>
+      </c>
+      <c r="J2" s="34">
+        <v>8</v>
+      </c>
+      <c r="K2" s="34">
+        <v>9</v>
+      </c>
+      <c r="L2" s="34">
+        <v>10</v>
+      </c>
+      <c r="M2" s="34">
+        <v>11</v>
+      </c>
+      <c r="N2" s="34">
+        <v>12</v>
+      </c>
+      <c r="O2" s="34">
+        <v>13</v>
+      </c>
+      <c r="P2" s="34">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>15</v>
+      </c>
+      <c r="R2" s="34">
+        <v>16</v>
+      </c>
+      <c r="S2" s="34">
+        <v>17</v>
+      </c>
+      <c r="T2" s="32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="37"/>
+    </row>
+    <row r="4" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="70"/>
+      <c r="B4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="78"/>
+      <c r="B6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="70"/>
+      <c r="B8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
+    </row>
+    <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="41">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="77"/>
+      <c r="B10" s="42">
+        <v>0</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="77"/>
+      <c r="B11" s="42">
+        <v>1</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="78"/>
+      <c r="B12" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:T1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1619,167 +1978,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="51">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="79">
         <v>1</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="61">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="61">
         <f t="shared" ref="E2:R2" si="0">D2+1</f>
         <v>3</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="61">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="61">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="61">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="61">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="61">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="61">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="61">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="61">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="61">
         <f>O2+1</f>
         <v>14</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="61">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="61">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="61">
         <f t="shared" ref="S2" si="1">R2+1</f>
         <v>17</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="66">
         <f t="shared" ref="T2" si="2">S2+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="75" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="56"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="38"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1793,21 +2152,21 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="28"/>
-      <c r="T5" s="38"/>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="75"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="75"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1817,20 +2176,20 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="28"/>
-      <c r="T6" s="38"/>
+      <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="40"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="77"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1840,44 +2199,44 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="41"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="56"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="38"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1891,21 +2250,21 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="28"/>
-      <c r="T9" s="38"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="75"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="75"/>
+      <c r="J10" s="50"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1915,20 +2274,20 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="28"/>
-      <c r="T10" s="38"/>
+      <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="59"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="77"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -1938,17 +2297,17 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="41"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="32"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1961,18 +2320,18 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="49"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="37"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1980,23 +2339,23 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="28"/>
-      <c r="T13" s="38"/>
+      <c r="T13" s="31"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="67" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2011,16 +2370,16 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="75"/>
+      <c r="R14" s="50"/>
       <c r="S14" s="28"/>
-      <c r="T14" s="76"/>
+      <c r="T14" s="51"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2036,131 +2395,138 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="41"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="32"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
@@ -2170,11 +2536,6 @@
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
@@ -2182,367 +2543,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="67" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12:Q12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="27.26953125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="62"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46">
-        <v>2</v>
-      </c>
-      <c r="E2" s="46">
-        <v>3</v>
-      </c>
-      <c r="F2" s="46">
-        <v>4</v>
-      </c>
-      <c r="G2" s="46">
-        <v>5</v>
-      </c>
-      <c r="H2" s="46">
-        <v>6</v>
-      </c>
-      <c r="I2" s="46">
-        <v>7</v>
-      </c>
-      <c r="J2" s="46">
-        <v>8</v>
-      </c>
-      <c r="K2" s="46">
-        <v>9</v>
-      </c>
-      <c r="L2" s="46">
-        <v>10</v>
-      </c>
-      <c r="M2" s="46">
-        <v>11</v>
-      </c>
-      <c r="N2" s="46">
-        <v>12</v>
-      </c>
-      <c r="O2" s="46">
-        <v>13</v>
-      </c>
-      <c r="P2" s="46">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="46">
-        <v>15</v>
-      </c>
-      <c r="R2" s="46">
-        <v>16</v>
-      </c>
-      <c r="S2" s="46">
-        <v>17</v>
-      </c>
-      <c r="T2" s="41">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="49"/>
-    </row>
-    <row r="4" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="38"/>
-    </row>
-    <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="38"/>
-    </row>
-    <row r="6" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="59"/>
-      <c r="B6" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="38"/>
-    </row>
-    <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="38"/>
-    </row>
-    <row r="8" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40"/>
-      <c r="B8" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="76"/>
-    </row>
-    <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="64">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="38"/>
-    </row>
-    <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="65">
-        <v>0</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="38"/>
-    </row>
-    <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="65">
-        <v>1</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="38"/>
-    </row>
-    <row r="12" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="59"/>
-      <c r="B12" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:T1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
